--- a/Data Files/C669.xlsx
+++ b/Data Files/C669.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD96665-65AB-C248-AE21-8A8439A7B7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A3A61D-1D5E-4246-B5E4-A9A56D70CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16760" xr2:uid="{876903BC-EACB-1E43-B2EE-BF89B5567002}"/>
   </bookViews>
@@ -50,17 +50,25 @@
     <t>delete</t>
   </si>
   <si>
-    <t>03205112TM@WG.COM</t>
+    <t>0425241TM@WG.COM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +91,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,7 +453,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -454,7 +465,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B85571FB-C433-E643-BF6D-EF38BEDF165F}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DE2ABA64-B063-7040-BD4C-80EC12DDA610}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/C669.xlsx
+++ b/Data Files/C669.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A3A61D-1D5E-4246-B5E4-A9A56D70CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9BA5D8-1761-954F-A1CF-9E44F942975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16760" xr2:uid="{876903BC-EACB-1E43-B2EE-BF89B5567002}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>0425241TM@WG.COM</t>
+    <t>0425245TM@WG.COM</t>
   </si>
 </sst>
 </file>

--- a/Data Files/C669.xlsx
+++ b/Data Files/C669.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9BA5D8-1761-954F-A1CF-9E44F942975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B88D71-0B65-F34C-9D04-215C1CD85FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16760" xr2:uid="{876903BC-EACB-1E43-B2EE-BF89B5567002}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>0425245TM@WG.COM</t>
+    <t>03205118TM@WG.COM</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{DE2ABA64-B063-7040-BD4C-80EC12DDA610}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B85571FB-C433-E643-BF6D-EF38BEDF165F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/C669.xlsx
+++ b/Data Files/C669.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B88D71-0B65-F34C-9D04-215C1CD85FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F84C0-FD41-D44B-B75B-A6A9EA9AE392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16760" xr2:uid="{876903BC-EACB-1E43-B2EE-BF89B5567002}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data Files/C669.xlsx
+++ b/Data Files/C669.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F84C0-FD41-D44B-B75B-A6A9EA9AE392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD6FCC-B44B-F849-AD79-9163F928D86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16760" xr2:uid="{876903BC-EACB-1E43-B2EE-BF89B5567002}"/>
+    <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16660" xr2:uid="{876903BC-EACB-1E43-B2EE-BF89B5567002}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>03205118TM@WG.COM</t>
+    <t>0525089TM@WG.COM</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B85571FB-C433-E643-BF6D-EF38BEDF165F}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DC346E1F-59FD-6447-B158-0F773B1B5494}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
